--- a/DataSheet/FOS7_AfterPostSanction.xlsx
+++ b/DataSheet/FOS7_AfterPostSanction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445BFFC9-C64A-458B-87A2-B9CD6AB5A1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9CE8FB-53A3-4734-89E7-5FDF5216844F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
   </bookViews>
@@ -469,7 +469,7 @@
     <t>//android.view.View[contains(@content-desc,"Post Sanction")]</t>
   </si>
   <si>
-    <t>MF24120500000988</t>
+    <t>MF24121000006284</t>
   </si>
 </sst>
 </file>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0CA32F-6895-4985-AF4D-119BC41D4938}">
   <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91:D96"/>
+    <sheetView topLeftCell="D1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4587,8 +4587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A86AEA-BDCA-4ACF-93E7-52FBBDAF5EE7}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4711,16 +4711,16 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>80</v>

--- a/DataSheet/FOS7_AfterPostSanction.xlsx
+++ b/DataSheet/FOS7_AfterPostSanction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9CE8FB-53A3-4734-89E7-5FDF5216844F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B135982-D65D-4639-A990-4D1CA9569EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
   </bookViews>
@@ -469,7 +469,7 @@
     <t>//android.view.View[contains(@content-desc,"Post Sanction")]</t>
   </si>
   <si>
-    <t>MF24121000006284</t>
+    <t>MF24121100006530</t>
   </si>
 </sst>
 </file>
@@ -4587,8 +4587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A86AEA-BDCA-4ACF-93E7-52FBBDAF5EE7}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4711,16 +4711,16 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>80</v>

--- a/DataSheet/FOS7_AfterPostSanction.xlsx
+++ b/DataSheet/FOS7_AfterPostSanction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B135982-D65D-4639-A990-4D1CA9569EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC55FF68-A082-4B25-B378-54EBB84C36F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
     <t>//android.view.View[contains(@content-desc,"Post Sanction")]</t>
   </si>
   <si>
-    <t>MF24121100006530</t>
+    <t>MF24121500006171</t>
   </si>
 </sst>
 </file>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0CA32F-6895-4985-AF4D-119BC41D4938}">
   <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4587,8 +4587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A86AEA-BDCA-4ACF-93E7-52FBBDAF5EE7}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4711,16 +4711,16 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>80</v>

--- a/DataSheet/FOS7_AfterPostSanction.xlsx
+++ b/DataSheet/FOS7_AfterPostSanction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biswa\eclipse-workspace\BSA_MOBILE_FRAMEWORK\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC55FF68-A082-4B25-B378-54EBB84C36F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C67673-07C0-4D74-8189-D239E2C4A0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{875AE543-1650-41B3-9C38-4B818EB686AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,14 +469,14 @@
     <t>//android.view.View[contains(@content-desc,"Post Sanction")]</t>
   </si>
   <si>
-    <t>MF24121500006171</t>
+    <t>MF24121700006422</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +515,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF181818"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -548,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -562,6 +569,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0CA32F-6895-4985-AF4D-119BC41D4938}">
   <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4587,7 +4595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A86AEA-BDCA-4ACF-93E7-52FBBDAF5EE7}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -4694,7 +4702,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4711,16 +4719,16 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>80</v>
@@ -4731,7 +4739,7 @@
       <c r="L2" t="s">
         <v>81</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="9" t="s">
         <v>147</v>
       </c>
       <c r="N2" s="6" t="s">
